--- a/Code/Results/Cases/Case_2_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000768529670669</v>
+        <v>1.024324031222992</v>
       </c>
       <c r="D2">
-        <v>1.017139640138326</v>
+        <v>1.028723914620983</v>
       </c>
       <c r="E2">
-        <v>1.006384062094926</v>
+        <v>1.04807214688726</v>
       </c>
       <c r="F2">
-        <v>1.009939279387293</v>
+        <v>1.052258118722738</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040754683040102</v>
+        <v>1.031797358698314</v>
       </c>
       <c r="J2">
-        <v>1.022926278420933</v>
+        <v>1.029499284313648</v>
       </c>
       <c r="K2">
-        <v>1.028365247131193</v>
+        <v>1.031539900414579</v>
       </c>
       <c r="L2">
-        <v>1.017755167559433</v>
+        <v>1.05083301330704</v>
       </c>
       <c r="M2">
-        <v>1.021261859402768</v>
+        <v>1.05500734930304</v>
       </c>
       <c r="N2">
-        <v>1.011659842857239</v>
+        <v>1.013894279400376</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004262408331894</v>
+        <v>1.025054188332102</v>
       </c>
       <c r="D3">
-        <v>1.019518282227331</v>
+        <v>1.029240845474762</v>
       </c>
       <c r="E3">
-        <v>1.011504330845297</v>
+        <v>1.049246818897453</v>
       </c>
       <c r="F3">
-        <v>1.015263890626491</v>
+        <v>1.053479227526721</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041535144738486</v>
+        <v>1.031913723182578</v>
       </c>
       <c r="J3">
-        <v>1.024637546406793</v>
+        <v>1.02986943401778</v>
       </c>
       <c r="K3">
-        <v>1.029907368523156</v>
+        <v>1.031865611888017</v>
       </c>
       <c r="L3">
-        <v>1.021992097720096</v>
+        <v>1.051818718007142</v>
       </c>
       <c r="M3">
-        <v>1.025705122390649</v>
+        <v>1.056040219859817</v>
       </c>
       <c r="N3">
-        <v>1.012228031177827</v>
+        <v>1.014016929603322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006480910989381</v>
+        <v>1.025527031369525</v>
       </c>
       <c r="D4">
-        <v>1.021031223081482</v>
+        <v>1.029575631742335</v>
       </c>
       <c r="E4">
-        <v>1.014754774160358</v>
+        <v>1.050007975719168</v>
       </c>
       <c r="F4">
-        <v>1.018643785825276</v>
+        <v>1.054270459170101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042021842786724</v>
+        <v>1.031987993151654</v>
       </c>
       <c r="J4">
-        <v>1.02572027483578</v>
+        <v>1.030108637225587</v>
       </c>
       <c r="K4">
-        <v>1.030882276912364</v>
+        <v>1.032075952316551</v>
       </c>
       <c r="L4">
-        <v>1.024678324799786</v>
+        <v>1.05245702430219</v>
       </c>
       <c r="M4">
-        <v>1.028522285972898</v>
+        <v>1.056709081174373</v>
       </c>
       <c r="N4">
-        <v>1.012587518522465</v>
+        <v>1.014096178127843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007403748564255</v>
+        <v>1.025725904572258</v>
       </c>
       <c r="D5">
-        <v>1.021661148518921</v>
+        <v>1.029716445477088</v>
       </c>
       <c r="E5">
-        <v>1.016106861113295</v>
+        <v>1.050328221365174</v>
       </c>
       <c r="F5">
-        <v>1.020049653738253</v>
+        <v>1.054603354712269</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042222140768038</v>
+        <v>1.032018970137097</v>
       </c>
       <c r="J5">
-        <v>1.026169717154812</v>
+        <v>1.030209123449312</v>
       </c>
       <c r="K5">
-        <v>1.03128675949885</v>
+        <v>1.032164278657341</v>
       </c>
       <c r="L5">
-        <v>1.025794874740328</v>
+        <v>1.052725485600443</v>
       </c>
       <c r="M5">
-        <v>1.029693283767383</v>
+        <v>1.056990396220991</v>
       </c>
       <c r="N5">
-        <v>1.012736739121679</v>
+        <v>1.014129466484128</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007558129585915</v>
+        <v>1.025759301488703</v>
       </c>
       <c r="D6">
-        <v>1.021766561636462</v>
+        <v>1.029740092756243</v>
       </c>
       <c r="E6">
-        <v>1.016333055332117</v>
+        <v>1.050382006997433</v>
       </c>
       <c r="F6">
-        <v>1.02028484109393</v>
+        <v>1.05465926469404</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042255521037706</v>
+        <v>1.032024156860694</v>
       </c>
       <c r="J6">
-        <v>1.026244848236609</v>
+        <v>1.030225991113546</v>
       </c>
       <c r="K6">
-        <v>1.031354362586818</v>
+        <v>1.032179103099336</v>
       </c>
       <c r="L6">
-        <v>1.025981615673174</v>
+        <v>1.052770568318891</v>
       </c>
       <c r="M6">
-        <v>1.029889132198301</v>
+        <v>1.05703763763126</v>
       </c>
       <c r="N6">
-        <v>1.01276168338157</v>
+        <v>1.014135054109844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006493280193169</v>
+        <v>1.025529688371396</v>
       </c>
       <c r="D7">
-        <v>1.021039663999254</v>
+        <v>1.029577513030962</v>
       </c>
       <c r="E7">
-        <v>1.014772896602682</v>
+        <v>1.050012253853619</v>
       </c>
       <c r="F7">
-        <v>1.018662629379156</v>
+        <v>1.054274906307836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042024536016834</v>
+        <v>1.031988408035403</v>
       </c>
       <c r="J7">
-        <v>1.025726302657333</v>
+        <v>1.030109980222579</v>
       </c>
       <c r="K7">
-        <v>1.03088770256309</v>
+        <v>1.032077132934703</v>
       </c>
       <c r="L7">
-        <v>1.024693293596829</v>
+        <v>1.05246061103395</v>
       </c>
       <c r="M7">
-        <v>1.02853798463005</v>
+        <v>1.056712839625588</v>
       </c>
       <c r="N7">
-        <v>1.012589519850409</v>
+        <v>1.014096623037858</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001958238866669</v>
+        <v>1.024570711064403</v>
       </c>
       <c r="D8">
-        <v>1.017949035181515</v>
+        <v>1.028898551264187</v>
       </c>
       <c r="E8">
-        <v>1.00812784629292</v>
+        <v>1.048468912319123</v>
       </c>
       <c r="F8">
-        <v>1.011752710062543</v>
+        <v>1.052670572043259</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041022281428808</v>
+        <v>1.031836896641323</v>
       </c>
       <c r="J8">
-        <v>1.023509788876217</v>
+        <v>1.029624441411301</v>
       </c>
       <c r="K8">
-        <v>1.028891242668453</v>
+        <v>1.031650061792839</v>
       </c>
       <c r="L8">
-        <v>1.019198834889158</v>
+        <v>1.051166035576403</v>
       </c>
       <c r="M8">
-        <v>1.022775802410103</v>
+        <v>1.055356304075712</v>
       </c>
       <c r="N8">
-        <v>1.011853585544984</v>
+        <v>1.013935753081569</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9936290552204522</v>
+        <v>1.022883871048742</v>
       </c>
       <c r="D9">
-        <v>1.012294857951704</v>
+        <v>1.027704483352559</v>
       </c>
       <c r="E9">
-        <v>0.9959087667960267</v>
+        <v>1.045757496920823</v>
       </c>
       <c r="F9">
-        <v>0.9990445814011157</v>
+        <v>1.049851889481349</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039112393462236</v>
+        <v>1.031562084331042</v>
       </c>
       <c r="J9">
-        <v>1.019408811398994</v>
+        <v>1.028766540933972</v>
       </c>
       <c r="K9">
-        <v>1.025191560107173</v>
+        <v>1.030894361780613</v>
       </c>
       <c r="L9">
-        <v>1.009068571998089</v>
+        <v>1.048888569615985</v>
       </c>
       <c r="M9">
-        <v>1.012153178647896</v>
+        <v>1.052969932998265</v>
       </c>
       <c r="N9">
-        <v>1.010491951178016</v>
+        <v>1.013651419073943</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9878282370162997</v>
+        <v>1.02176142324865</v>
       </c>
       <c r="D10">
-        <v>1.00837450618606</v>
+        <v>1.026910114079195</v>
       </c>
       <c r="E10">
-        <v>0.987376112586871</v>
+        <v>1.04395534856131</v>
       </c>
       <c r="F10">
-        <v>0.9901692596983306</v>
+        <v>1.047978373638712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03773720314622</v>
+        <v>1.031373645739896</v>
       </c>
       <c r="J10">
-        <v>1.016533239554119</v>
+        <v>1.028193105741059</v>
       </c>
       <c r="K10">
-        <v>1.022594184847841</v>
+        <v>1.030388507248725</v>
       </c>
       <c r="L10">
-        <v>1.001977098346998</v>
+        <v>1.047372762347004</v>
       </c>
       <c r="M10">
-        <v>1.004718309082195</v>
+        <v>1.0513817138064</v>
       </c>
       <c r="N10">
-        <v>1.009537249725129</v>
+        <v>1.013461304952356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9852525823937297</v>
+        <v>1.021275911857088</v>
       </c>
       <c r="D11">
-        <v>1.006638523425631</v>
+        <v>1.026566561280796</v>
       </c>
       <c r="E11">
-        <v>0.9835789435402883</v>
+        <v>1.043176289284176</v>
       </c>
       <c r="F11">
-        <v>0.9862193686910523</v>
+        <v>1.047168446189507</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037116281917006</v>
+        <v>1.031290816303789</v>
       </c>
       <c r="J11">
-        <v>1.015252006217563</v>
+        <v>1.027944457910599</v>
       </c>
       <c r="K11">
-        <v>1.021436323486299</v>
+        <v>1.030168992113089</v>
       </c>
       <c r="L11">
-        <v>0.9988173264869719</v>
+        <v>1.046716991437158</v>
       </c>
       <c r="M11">
-        <v>1.001405932423814</v>
+        <v>1.050694634328351</v>
       </c>
       <c r="N11">
-        <v>1.009111907218343</v>
+        <v>1.013378855359468</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9842858175510447</v>
+        <v>1.021095650413464</v>
       </c>
       <c r="D12">
-        <v>1.005987685454609</v>
+        <v>1.026439014371502</v>
       </c>
       <c r="E12">
-        <v>0.9821521136910097</v>
+        <v>1.042887104227913</v>
       </c>
       <c r="F12">
-        <v>0.9847351215277343</v>
+        <v>1.046867800536021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036881702806568</v>
+        <v>1.031259864883771</v>
       </c>
       <c r="J12">
-        <v>1.014770447536669</v>
+        <v>1.02785204792177</v>
       </c>
       <c r="K12">
-        <v>1.021001062961026</v>
+        <v>1.030087383805232</v>
       </c>
       <c r="L12">
-        <v>0.9976294297820356</v>
+        <v>1.046473496230605</v>
       </c>
       <c r="M12">
-        <v>1.000160734683218</v>
+        <v>1.05043951677157</v>
       </c>
       <c r="N12">
-        <v>1.008952046112598</v>
+        <v>1.01334821088246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9844936544353018</v>
+        <v>1.02113431349979</v>
       </c>
       <c r="D13">
-        <v>1.006127568711092</v>
+        <v>1.026466370698668</v>
       </c>
       <c r="E13">
-        <v>0.982458932177854</v>
+        <v>1.042949126712308</v>
       </c>
       <c r="F13">
-        <v>0.985054288050616</v>
+        <v>1.046932281120647</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036932201141728</v>
+        <v>1.031266512425659</v>
       </c>
       <c r="J13">
-        <v>1.014874003104418</v>
+        <v>1.027871872475657</v>
       </c>
       <c r="K13">
-        <v>1.021094665455169</v>
+        <v>1.030104892243321</v>
       </c>
       <c r="L13">
-        <v>0.9978848949949317</v>
+        <v>1.046525722834107</v>
       </c>
       <c r="M13">
-        <v>1.00042851956432</v>
+        <v>1.050494236088291</v>
       </c>
       <c r="N13">
-        <v>1.00898642273452</v>
+        <v>1.013354785082335</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9851728771170022</v>
+        <v>1.021261009766997</v>
       </c>
       <c r="D14">
-        <v>1.0065848491405</v>
+        <v>1.026556016900508</v>
       </c>
       <c r="E14">
-        <v>0.9834613417743577</v>
+        <v>1.043152381238224</v>
       </c>
       <c r="F14">
-        <v>0.9860970350821648</v>
+        <v>1.047143590700341</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037096972640978</v>
+        <v>1.031288261618013</v>
       </c>
       <c r="J14">
-        <v>1.015212317096924</v>
+        <v>1.027936820309247</v>
       </c>
       <c r="K14">
-        <v>1.021400451539609</v>
+        <v>1.030162247779493</v>
       </c>
       <c r="L14">
-        <v>0.9987194296065866</v>
+        <v>1.046696862268534</v>
       </c>
       <c r="M14">
-        <v>1.001303311780142</v>
+        <v>1.050673544308351</v>
       </c>
       <c r="N14">
-        <v>1.00909873164489</v>
+        <v>1.013376322663611</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9855900224604884</v>
+        <v>1.021339082048538</v>
       </c>
       <c r="D15">
-        <v>1.006865789977298</v>
+        <v>1.026611259400258</v>
       </c>
       <c r="E15">
-        <v>0.9840767561595297</v>
+        <v>1.043277638520034</v>
       </c>
       <c r="F15">
-        <v>0.9867372101673226</v>
+        <v>1.047273811659197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037197967902526</v>
+        <v>1.031301637531602</v>
       </c>
       <c r="J15">
-        <v>1.015420007509519</v>
+        <v>1.027976830068733</v>
       </c>
       <c r="K15">
-        <v>1.021588164108375</v>
+        <v>1.030197577091895</v>
       </c>
       <c r="L15">
-        <v>0.9992317042195978</v>
+        <v>1.046802318480339</v>
       </c>
       <c r="M15">
-        <v>1.001840307793455</v>
+        <v>1.05078403451507</v>
       </c>
       <c r="N15">
-        <v>1.009167678768872</v>
+        <v>1.013389590167206</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9879977908383316</v>
+        <v>1.021793656046527</v>
       </c>
       <c r="D16">
-        <v>1.008488887448828</v>
+        <v>1.026932923417322</v>
       </c>
       <c r="E16">
-        <v>0.9876258758603672</v>
+        <v>1.044007079146227</v>
       </c>
       <c r="F16">
-        <v>0.9904290640065524</v>
+        <v>1.048032153571571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03777786553003</v>
+        <v>1.031379116899437</v>
       </c>
       <c r="J16">
-        <v>1.016617491163105</v>
+        <v>1.028209600458041</v>
       </c>
       <c r="K16">
-        <v>1.022670312925031</v>
+        <v>1.030403065787033</v>
       </c>
       <c r="L16">
-        <v>1.002184855176497</v>
+        <v>1.047416295966761</v>
       </c>
       <c r="M16">
-        <v>1.004936108930484</v>
+        <v>1.051427326255653</v>
       </c>
       <c r="N16">
-        <v>1.009565220274875</v>
+        <v>1.013466774173246</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9894907086644742</v>
+        <v>1.022078937556147</v>
       </c>
       <c r="D17">
-        <v>1.009496555586226</v>
+        <v>1.027134806851738</v>
       </c>
       <c r="E17">
-        <v>0.9898240299968804</v>
+        <v>1.044464981089511</v>
       </c>
       <c r="F17">
-        <v>0.9927155631571036</v>
+        <v>1.048508193774915</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038134724854159</v>
+        <v>1.031427387600766</v>
       </c>
       <c r="J17">
-        <v>1.017358821179729</v>
+        <v>1.028355519055145</v>
       </c>
       <c r="K17">
-        <v>1.02334009972121</v>
+        <v>1.030531836487604</v>
       </c>
       <c r="L17">
-        <v>1.004012864772227</v>
+        <v>1.047801583811025</v>
       </c>
       <c r="M17">
-        <v>1.006852531937201</v>
+        <v>1.051831014611914</v>
       </c>
       <c r="N17">
-        <v>1.009811337007594</v>
+        <v>1.013515155386319</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9903553730015107</v>
+        <v>1.022245387105351</v>
       </c>
       <c r="D18">
-        <v>1.010080619061807</v>
+        <v>1.027252601911002</v>
       </c>
       <c r="E18">
-        <v>0.9910963601853852</v>
+        <v>1.044732191355068</v>
       </c>
       <c r="F18">
-        <v>0.9940390069305731</v>
+        <v>1.048785987098581</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038340427158779</v>
+        <v>1.031455423956373</v>
       </c>
       <c r="J18">
-        <v>1.01778776037531</v>
+        <v>1.028440597397128</v>
       </c>
       <c r="K18">
-        <v>1.023727587348808</v>
+        <v>1.030606900187532</v>
       </c>
       <c r="L18">
-        <v>1.005070572529977</v>
+        <v>1.04802637202976</v>
       </c>
       <c r="M18">
-        <v>1.007961434347775</v>
+        <v>1.052066539996269</v>
       </c>
       <c r="N18">
-        <v>1.009953744978438</v>
+        <v>1.013543362867187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.99064917496809</v>
+        <v>1.022302150476768</v>
       </c>
       <c r="D19">
-        <v>1.010279150401573</v>
+        <v>1.027292773694154</v>
       </c>
       <c r="E19">
-        <v>0.9915285559685021</v>
+        <v>1.044823324165427</v>
       </c>
       <c r="F19">
-        <v>0.99448856154193</v>
+        <v>1.048880729019667</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038410154581681</v>
+        <v>1.031464963406015</v>
       </c>
       <c r="J19">
-        <v>1.017933436362854</v>
+        <v>1.028469601200523</v>
       </c>
       <c r="K19">
-        <v>1.023859175619818</v>
+        <v>1.030632487123901</v>
       </c>
       <c r="L19">
-        <v>1.005429799239232</v>
+        <v>1.048103028570772</v>
       </c>
       <c r="M19">
-        <v>1.008338054287328</v>
+        <v>1.052146858386625</v>
       </c>
       <c r="N19">
-        <v>1.01000210991912</v>
+        <v>1.013552978764994</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9893311699146574</v>
+        <v>1.022048324400797</v>
       </c>
       <c r="D20">
-        <v>1.0093888259362</v>
+        <v>1.027113142534248</v>
       </c>
       <c r="E20">
-        <v>0.9895892111265608</v>
+        <v>1.04441583974178</v>
       </c>
       <c r="F20">
-        <v>0.9924713090477391</v>
+        <v>1.048457106020023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038096691224183</v>
+        <v>1.031422220929266</v>
       </c>
       <c r="J20">
-        <v>1.017279643603636</v>
+        <v>1.028339866829477</v>
       </c>
       <c r="K20">
-        <v>1.023268569016489</v>
+        <v>1.030518025368094</v>
       </c>
       <c r="L20">
-        <v>1.003817625684763</v>
+        <v>1.047760240247011</v>
       </c>
       <c r="M20">
-        <v>1.006647845959919</v>
+        <v>1.051787696385282</v>
       </c>
       <c r="N20">
-        <v>1.009785050251958</v>
+        <v>1.013509965826579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.984973144272855</v>
+        <v>1.02122369867765</v>
       </c>
       <c r="D21">
-        <v>1.006450359551955</v>
+        <v>1.026529616551379</v>
       </c>
       <c r="E21">
-        <v>0.9831666180330781</v>
+        <v>1.043092522543246</v>
       </c>
       <c r="F21">
-        <v>0.9857904523173514</v>
+        <v>1.047081359848432</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037048561320795</v>
+        <v>1.031281862122047</v>
       </c>
       <c r="J21">
-        <v>1.015112849987849</v>
+        <v>1.027917696194316</v>
       </c>
       <c r="K21">
-        <v>1.021310549757227</v>
+        <v>1.030145359944719</v>
       </c>
       <c r="L21">
-        <v>0.9984740793871891</v>
+        <v>1.046646463563511</v>
       </c>
       <c r="M21">
-        <v>1.00104612397063</v>
+        <v>1.0506207399043</v>
       </c>
       <c r="N21">
-        <v>1.009065711714058</v>
+        <v>1.013369980905234</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9821746743518615</v>
+        <v>1.020705682219873</v>
       </c>
       <c r="D22">
-        <v>1.004567887883312</v>
+        <v>1.026163101103676</v>
       </c>
       <c r="E22">
-        <v>0.979033086823268</v>
+        <v>1.042261612544317</v>
       </c>
       <c r="F22">
-        <v>0.9814905304792358</v>
+        <v>1.046217515875662</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036366693337395</v>
+        <v>1.03119254359003</v>
       </c>
       <c r="J22">
-        <v>1.013717677588811</v>
+        <v>1.027651965507306</v>
       </c>
       <c r="K22">
-        <v>1.020049393914797</v>
+        <v>1.029910642362426</v>
       </c>
       <c r="L22">
-        <v>0.9950316679968406</v>
+        <v>1.045946692910424</v>
       </c>
       <c r="M22">
-        <v>0.9974378026382081</v>
+        <v>1.049887573814538</v>
       </c>
       <c r="N22">
-        <v>1.008602575345086</v>
+        <v>1.013281856912888</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9836638929574106</v>
+        <v>1.020980248556006</v>
       </c>
       <c r="D23">
-        <v>1.005569218213231</v>
+        <v>1.026357362209856</v>
       </c>
       <c r="E23">
-        <v>0.9812337455759755</v>
+        <v>1.042701988407584</v>
       </c>
       <c r="F23">
-        <v>0.9837797892073079</v>
+        <v>1.046675347783588</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036730373180805</v>
+        <v>1.031239994212244</v>
       </c>
       <c r="J23">
-        <v>1.0144604767775</v>
+        <v>1.027792862038493</v>
       </c>
       <c r="K23">
-        <v>1.020720875206076</v>
+        <v>1.030035108931498</v>
       </c>
       <c r="L23">
-        <v>0.9968646891141896</v>
+        <v>1.04631760683408</v>
       </c>
       <c r="M23">
-        <v>0.9993591257860401</v>
+        <v>1.050276187391023</v>
       </c>
       <c r="N23">
-        <v>1.008849148298985</v>
+        <v>1.013328583413317</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.989403277517101</v>
+        <v>1.022062157014685</v>
       </c>
       <c r="D24">
-        <v>1.009437515721171</v>
+        <v>1.027122931583818</v>
       </c>
       <c r="E24">
-        <v>0.9896953459275724</v>
+        <v>1.044438044218784</v>
       </c>
       <c r="F24">
-        <v>0.9925817085117674</v>
+        <v>1.048480189984391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038113884540088</v>
+        <v>1.031424555893871</v>
       </c>
       <c r="J24">
-        <v>1.017315431236775</v>
+        <v>1.028346939500154</v>
       </c>
       <c r="K24">
-        <v>1.023300900499898</v>
+        <v>1.030524266160982</v>
       </c>
       <c r="L24">
-        <v>1.00390587215281</v>
+        <v>1.04777892144971</v>
       </c>
       <c r="M24">
-        <v>1.00674036222882</v>
+        <v>1.051807269839254</v>
       </c>
       <c r="N24">
-        <v>1.009796931646878</v>
+        <v>1.01351231080379</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9958244606114118</v>
+        <v>1.023319594275587</v>
       </c>
       <c r="D25">
-        <v>1.013782350652619</v>
+        <v>1.028012890157709</v>
       </c>
       <c r="E25">
-        <v>0.999132422471806</v>
+        <v>1.046457498850742</v>
       </c>
       <c r="F25">
-        <v>1.00239747358236</v>
+        <v>1.050579597383002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039623705518155</v>
+        <v>1.031634054282378</v>
       </c>
       <c r="J25">
-        <v>1.020493170090119</v>
+        <v>1.028988597645559</v>
       </c>
       <c r="K25">
-        <v>1.026170415581128</v>
+        <v>1.031090094911725</v>
       </c>
       <c r="L25">
-        <v>1.011744221409993</v>
+        <v>1.049476907060314</v>
       </c>
       <c r="M25">
-        <v>1.01495868551981</v>
+        <v>1.053586391684787</v>
       </c>
       <c r="N25">
-        <v>1.010851981434916</v>
+        <v>1.013725026100421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024324031222992</v>
+        <v>1.000768529670669</v>
       </c>
       <c r="D2">
-        <v>1.028723914620983</v>
+        <v>1.017139640138326</v>
       </c>
       <c r="E2">
-        <v>1.04807214688726</v>
+        <v>1.006384062094926</v>
       </c>
       <c r="F2">
-        <v>1.052258118722738</v>
+        <v>1.009939279387292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031797358698314</v>
+        <v>1.040754683040102</v>
       </c>
       <c r="J2">
-        <v>1.029499284313648</v>
+        <v>1.022926278420933</v>
       </c>
       <c r="K2">
-        <v>1.031539900414579</v>
+        <v>1.028365247131193</v>
       </c>
       <c r="L2">
-        <v>1.05083301330704</v>
+        <v>1.017755167559433</v>
       </c>
       <c r="M2">
-        <v>1.05500734930304</v>
+        <v>1.021261859402768</v>
       </c>
       <c r="N2">
-        <v>1.013894279400376</v>
+        <v>1.011659842857239</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025054188332102</v>
+        <v>1.004262408331894</v>
       </c>
       <c r="D3">
-        <v>1.029240845474762</v>
+        <v>1.019518282227331</v>
       </c>
       <c r="E3">
-        <v>1.049246818897453</v>
+        <v>1.011504330845296</v>
       </c>
       <c r="F3">
-        <v>1.053479227526721</v>
+        <v>1.01526389062649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031913723182578</v>
+        <v>1.041535144738486</v>
       </c>
       <c r="J3">
-        <v>1.02986943401778</v>
+        <v>1.024637546406792</v>
       </c>
       <c r="K3">
-        <v>1.031865611888017</v>
+        <v>1.029907368523156</v>
       </c>
       <c r="L3">
-        <v>1.051818718007142</v>
+        <v>1.021992097720096</v>
       </c>
       <c r="M3">
-        <v>1.056040219859817</v>
+        <v>1.025705122390649</v>
       </c>
       <c r="N3">
-        <v>1.014016929603322</v>
+        <v>1.012228031177827</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025527031369525</v>
+        <v>1.00648091098938</v>
       </c>
       <c r="D4">
-        <v>1.029575631742335</v>
+        <v>1.021031223081481</v>
       </c>
       <c r="E4">
-        <v>1.050007975719168</v>
+        <v>1.014754774160357</v>
       </c>
       <c r="F4">
-        <v>1.054270459170101</v>
+        <v>1.018643785825275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031987993151654</v>
+        <v>1.042021842786723</v>
       </c>
       <c r="J4">
-        <v>1.030108637225587</v>
+        <v>1.025720274835779</v>
       </c>
       <c r="K4">
-        <v>1.032075952316551</v>
+        <v>1.030882276912363</v>
       </c>
       <c r="L4">
-        <v>1.05245702430219</v>
+        <v>1.024678324799785</v>
       </c>
       <c r="M4">
-        <v>1.056709081174373</v>
+        <v>1.028522285972898</v>
       </c>
       <c r="N4">
-        <v>1.014096178127843</v>
+        <v>1.012587518522465</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025725904572258</v>
+        <v>1.007403748564255</v>
       </c>
       <c r="D5">
-        <v>1.029716445477088</v>
+        <v>1.021661148518921</v>
       </c>
       <c r="E5">
-        <v>1.050328221365174</v>
+        <v>1.016106861113295</v>
       </c>
       <c r="F5">
-        <v>1.054603354712269</v>
+        <v>1.020049653738253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032018970137097</v>
+        <v>1.042222140768038</v>
       </c>
       <c r="J5">
-        <v>1.030209123449312</v>
+        <v>1.026169717154812</v>
       </c>
       <c r="K5">
-        <v>1.032164278657341</v>
+        <v>1.03128675949885</v>
       </c>
       <c r="L5">
-        <v>1.052725485600443</v>
+        <v>1.025794874740328</v>
       </c>
       <c r="M5">
-        <v>1.056990396220991</v>
+        <v>1.029693283767383</v>
       </c>
       <c r="N5">
-        <v>1.014129466484128</v>
+        <v>1.012736739121679</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025759301488703</v>
+        <v>1.007558129585915</v>
       </c>
       <c r="D6">
-        <v>1.029740092756243</v>
+        <v>1.021766561636462</v>
       </c>
       <c r="E6">
-        <v>1.050382006997433</v>
+        <v>1.016333055332117</v>
       </c>
       <c r="F6">
-        <v>1.05465926469404</v>
+        <v>1.02028484109393</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032024156860694</v>
+        <v>1.042255521037706</v>
       </c>
       <c r="J6">
-        <v>1.030225991113546</v>
+        <v>1.026244848236608</v>
       </c>
       <c r="K6">
-        <v>1.032179103099336</v>
+        <v>1.031354362586818</v>
       </c>
       <c r="L6">
-        <v>1.052770568318891</v>
+        <v>1.025981615673174</v>
       </c>
       <c r="M6">
-        <v>1.05703763763126</v>
+        <v>1.0298891321983</v>
       </c>
       <c r="N6">
-        <v>1.014135054109844</v>
+        <v>1.01276168338157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025529688371396</v>
+        <v>1.006493280193169</v>
       </c>
       <c r="D7">
-        <v>1.029577513030962</v>
+        <v>1.021039663999254</v>
       </c>
       <c r="E7">
-        <v>1.050012253853619</v>
+        <v>1.014772896602681</v>
       </c>
       <c r="F7">
-        <v>1.054274906307836</v>
+        <v>1.018662629379155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031988408035403</v>
+        <v>1.042024536016834</v>
       </c>
       <c r="J7">
-        <v>1.030109980222579</v>
+        <v>1.025726302657334</v>
       </c>
       <c r="K7">
-        <v>1.032077132934703</v>
+        <v>1.030887702563091</v>
       </c>
       <c r="L7">
-        <v>1.05246061103395</v>
+        <v>1.024693293596828</v>
       </c>
       <c r="M7">
-        <v>1.056712839625588</v>
+        <v>1.02853798463005</v>
       </c>
       <c r="N7">
-        <v>1.014096623037858</v>
+        <v>1.012589519850409</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024570711064403</v>
+        <v>1.00195823886667</v>
       </c>
       <c r="D8">
-        <v>1.028898551264187</v>
+        <v>1.017949035181516</v>
       </c>
       <c r="E8">
-        <v>1.048468912319123</v>
+        <v>1.008127846292921</v>
       </c>
       <c r="F8">
-        <v>1.052670572043259</v>
+        <v>1.011752710062545</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031836896641323</v>
+        <v>1.041022281428808</v>
       </c>
       <c r="J8">
-        <v>1.029624441411301</v>
+        <v>1.023509788876217</v>
       </c>
       <c r="K8">
-        <v>1.031650061792839</v>
+        <v>1.028891242668454</v>
       </c>
       <c r="L8">
-        <v>1.051166035576403</v>
+        <v>1.019198834889159</v>
       </c>
       <c r="M8">
-        <v>1.055356304075712</v>
+        <v>1.022775802410105</v>
       </c>
       <c r="N8">
-        <v>1.013935753081569</v>
+        <v>1.011853585544984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022883871048742</v>
+        <v>0.993629055220452</v>
       </c>
       <c r="D9">
-        <v>1.027704483352559</v>
+        <v>1.012294857951703</v>
       </c>
       <c r="E9">
-        <v>1.045757496920823</v>
+        <v>0.9959087667960266</v>
       </c>
       <c r="F9">
-        <v>1.049851889481349</v>
+        <v>0.9990445814011158</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031562084331042</v>
+        <v>1.039112393462235</v>
       </c>
       <c r="J9">
-        <v>1.028766540933972</v>
+        <v>1.019408811398993</v>
       </c>
       <c r="K9">
-        <v>1.030894361780613</v>
+        <v>1.025191560107173</v>
       </c>
       <c r="L9">
-        <v>1.048888569615985</v>
+        <v>1.009068571998089</v>
       </c>
       <c r="M9">
-        <v>1.052969932998265</v>
+        <v>1.012153178647896</v>
       </c>
       <c r="N9">
-        <v>1.013651419073943</v>
+        <v>1.010491951178016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02176142324865</v>
+        <v>0.9878282370163001</v>
       </c>
       <c r="D10">
-        <v>1.026910114079195</v>
+        <v>1.00837450618606</v>
       </c>
       <c r="E10">
-        <v>1.04395534856131</v>
+        <v>0.9873761125868717</v>
       </c>
       <c r="F10">
-        <v>1.047978373638712</v>
+        <v>0.9901692596983317</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031373645739896</v>
+        <v>1.03773720314622</v>
       </c>
       <c r="J10">
-        <v>1.028193105741059</v>
+        <v>1.016533239554119</v>
       </c>
       <c r="K10">
-        <v>1.030388507248725</v>
+        <v>1.022594184847841</v>
       </c>
       <c r="L10">
-        <v>1.047372762347004</v>
+        <v>1.001977098346999</v>
       </c>
       <c r="M10">
-        <v>1.0513817138064</v>
+        <v>1.004718309082195</v>
       </c>
       <c r="N10">
-        <v>1.013461304952356</v>
+        <v>1.009537249725129</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021275911857088</v>
+        <v>0.9852525823937295</v>
       </c>
       <c r="D11">
-        <v>1.026566561280796</v>
+        <v>1.006638523425631</v>
       </c>
       <c r="E11">
-        <v>1.043176289284176</v>
+        <v>0.9835789435402882</v>
       </c>
       <c r="F11">
-        <v>1.047168446189507</v>
+        <v>0.9862193686910521</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031290816303789</v>
+        <v>1.037116281917006</v>
       </c>
       <c r="J11">
-        <v>1.027944457910599</v>
+        <v>1.015252006217562</v>
       </c>
       <c r="K11">
-        <v>1.030168992113089</v>
+        <v>1.021436323486299</v>
       </c>
       <c r="L11">
-        <v>1.046716991437158</v>
+        <v>0.9988173264869719</v>
       </c>
       <c r="M11">
-        <v>1.050694634328351</v>
+        <v>1.001405932423814</v>
       </c>
       <c r="N11">
-        <v>1.013378855359468</v>
+        <v>1.009111907218343</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021095650413464</v>
+        <v>0.9842858175510446</v>
       </c>
       <c r="D12">
-        <v>1.026439014371502</v>
+        <v>1.005987685454609</v>
       </c>
       <c r="E12">
-        <v>1.042887104227913</v>
+        <v>0.9821521136910104</v>
       </c>
       <c r="F12">
-        <v>1.046867800536021</v>
+        <v>0.9847351215277347</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031259864883771</v>
+        <v>1.036881702806568</v>
       </c>
       <c r="J12">
-        <v>1.02785204792177</v>
+        <v>1.014770447536669</v>
       </c>
       <c r="K12">
-        <v>1.030087383805232</v>
+        <v>1.021001062961026</v>
       </c>
       <c r="L12">
-        <v>1.046473496230605</v>
+        <v>0.9976294297820361</v>
       </c>
       <c r="M12">
-        <v>1.05043951677157</v>
+        <v>1.000160734683219</v>
       </c>
       <c r="N12">
-        <v>1.01334821088246</v>
+        <v>1.008952046112598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02113431349979</v>
+        <v>0.9844936544353019</v>
       </c>
       <c r="D13">
-        <v>1.026466370698668</v>
+        <v>1.006127568711092</v>
       </c>
       <c r="E13">
-        <v>1.042949126712308</v>
+        <v>0.9824589321778534</v>
       </c>
       <c r="F13">
-        <v>1.046932281120647</v>
+        <v>0.9850542880506155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031266512425659</v>
+        <v>1.036932201141728</v>
       </c>
       <c r="J13">
-        <v>1.027871872475657</v>
+        <v>1.014874003104418</v>
       </c>
       <c r="K13">
-        <v>1.030104892243321</v>
+        <v>1.02109466545517</v>
       </c>
       <c r="L13">
-        <v>1.046525722834107</v>
+        <v>0.9978848949949313</v>
       </c>
       <c r="M13">
-        <v>1.050494236088291</v>
+        <v>1.00042851956432</v>
       </c>
       <c r="N13">
-        <v>1.013354785082335</v>
+        <v>1.00898642273452</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021261009766997</v>
+        <v>0.9851728771170014</v>
       </c>
       <c r="D14">
-        <v>1.026556016900508</v>
+        <v>1.006584849140499</v>
       </c>
       <c r="E14">
-        <v>1.043152381238224</v>
+        <v>0.9834613417743572</v>
       </c>
       <c r="F14">
-        <v>1.047143590700341</v>
+        <v>0.9860970350821642</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031288261618013</v>
+        <v>1.037096972640977</v>
       </c>
       <c r="J14">
-        <v>1.027936820309247</v>
+        <v>1.015212317096924</v>
       </c>
       <c r="K14">
-        <v>1.030162247779493</v>
+        <v>1.021400451539608</v>
       </c>
       <c r="L14">
-        <v>1.046696862268534</v>
+        <v>0.998719429606586</v>
       </c>
       <c r="M14">
-        <v>1.050673544308351</v>
+        <v>1.001303311780142</v>
       </c>
       <c r="N14">
-        <v>1.013376322663611</v>
+        <v>1.009098731644889</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021339082048538</v>
+        <v>0.985590022460488</v>
       </c>
       <c r="D15">
-        <v>1.026611259400258</v>
+        <v>1.006865789977297</v>
       </c>
       <c r="E15">
-        <v>1.043277638520034</v>
+        <v>0.9840767561595294</v>
       </c>
       <c r="F15">
-        <v>1.047273811659197</v>
+        <v>0.9867372101673222</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031301637531602</v>
+        <v>1.037197967902525</v>
       </c>
       <c r="J15">
-        <v>1.027976830068733</v>
+        <v>1.015420007509518</v>
       </c>
       <c r="K15">
-        <v>1.030197577091895</v>
+        <v>1.021588164108375</v>
       </c>
       <c r="L15">
-        <v>1.046802318480339</v>
+        <v>0.9992317042195975</v>
       </c>
       <c r="M15">
-        <v>1.05078403451507</v>
+        <v>1.001840307793454</v>
       </c>
       <c r="N15">
-        <v>1.013389590167206</v>
+        <v>1.009167678768872</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021793656046527</v>
+        <v>0.9879977908383313</v>
       </c>
       <c r="D16">
-        <v>1.026932923417322</v>
+        <v>1.008488887448828</v>
       </c>
       <c r="E16">
-        <v>1.044007079146227</v>
+        <v>0.9876258758603665</v>
       </c>
       <c r="F16">
-        <v>1.048032153571571</v>
+        <v>0.9904290640065514</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031379116899437</v>
+        <v>1.03777786553003</v>
       </c>
       <c r="J16">
-        <v>1.028209600458041</v>
+        <v>1.016617491163104</v>
       </c>
       <c r="K16">
-        <v>1.030403065787033</v>
+        <v>1.022670312925031</v>
       </c>
       <c r="L16">
-        <v>1.047416295966761</v>
+        <v>1.002184855176497</v>
       </c>
       <c r="M16">
-        <v>1.051427326255653</v>
+        <v>1.004936108930483</v>
       </c>
       <c r="N16">
-        <v>1.013466774173246</v>
+        <v>1.009565220274875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022078937556147</v>
+        <v>0.9894907086644741</v>
       </c>
       <c r="D17">
-        <v>1.027134806851738</v>
+        <v>1.009496555586226</v>
       </c>
       <c r="E17">
-        <v>1.044464981089511</v>
+        <v>0.989824029996881</v>
       </c>
       <c r="F17">
-        <v>1.048508193774915</v>
+        <v>0.9927155631571043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031427387600766</v>
+        <v>1.038134724854159</v>
       </c>
       <c r="J17">
-        <v>1.028355519055145</v>
+        <v>1.017358821179728</v>
       </c>
       <c r="K17">
-        <v>1.030531836487604</v>
+        <v>1.02334009972121</v>
       </c>
       <c r="L17">
-        <v>1.047801583811025</v>
+        <v>1.004012864772228</v>
       </c>
       <c r="M17">
-        <v>1.051831014611914</v>
+        <v>1.006852531937202</v>
       </c>
       <c r="N17">
-        <v>1.013515155386319</v>
+        <v>1.009811337007594</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022245387105351</v>
+        <v>0.9903553730015102</v>
       </c>
       <c r="D18">
-        <v>1.027252601911002</v>
+        <v>1.010080619061807</v>
       </c>
       <c r="E18">
-        <v>1.044732191355068</v>
+        <v>0.9910963601853851</v>
       </c>
       <c r="F18">
-        <v>1.048785987098581</v>
+        <v>0.994039006930573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031455423956373</v>
+        <v>1.038340427158779</v>
       </c>
       <c r="J18">
-        <v>1.028440597397128</v>
+        <v>1.01778776037531</v>
       </c>
       <c r="K18">
-        <v>1.030606900187532</v>
+        <v>1.023727587348808</v>
       </c>
       <c r="L18">
-        <v>1.04802637202976</v>
+        <v>1.005070572529977</v>
       </c>
       <c r="M18">
-        <v>1.052066539996269</v>
+        <v>1.007961434347775</v>
       </c>
       <c r="N18">
-        <v>1.013543362867187</v>
+        <v>1.009953744978438</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022302150476768</v>
+        <v>0.9906491749680897</v>
       </c>
       <c r="D19">
-        <v>1.027292773694154</v>
+        <v>1.010279150401573</v>
       </c>
       <c r="E19">
-        <v>1.044823324165427</v>
+        <v>0.9915285559685018</v>
       </c>
       <c r="F19">
-        <v>1.048880729019667</v>
+        <v>0.9944885615419294</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031464963406015</v>
+        <v>1.038410154581681</v>
       </c>
       <c r="J19">
-        <v>1.028469601200523</v>
+        <v>1.017933436362854</v>
       </c>
       <c r="K19">
-        <v>1.030632487123901</v>
+        <v>1.023859175619818</v>
       </c>
       <c r="L19">
-        <v>1.048103028570772</v>
+        <v>1.005429799239232</v>
       </c>
       <c r="M19">
-        <v>1.052146858386625</v>
+        <v>1.008338054287328</v>
       </c>
       <c r="N19">
-        <v>1.013552978764994</v>
+        <v>1.01000210991912</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022048324400797</v>
+        <v>0.989331169914658</v>
       </c>
       <c r="D20">
-        <v>1.027113142534248</v>
+        <v>1.009388825936201</v>
       </c>
       <c r="E20">
-        <v>1.04441583974178</v>
+        <v>0.9895892111265612</v>
       </c>
       <c r="F20">
-        <v>1.048457106020023</v>
+        <v>0.9924713090477392</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031422220929266</v>
+        <v>1.038096691224183</v>
       </c>
       <c r="J20">
-        <v>1.028339866829477</v>
+        <v>1.017279643603636</v>
       </c>
       <c r="K20">
-        <v>1.030518025368094</v>
+        <v>1.02326856901649</v>
       </c>
       <c r="L20">
-        <v>1.047760240247011</v>
+        <v>1.003817625684763</v>
       </c>
       <c r="M20">
-        <v>1.051787696385282</v>
+        <v>1.006647845959919</v>
       </c>
       <c r="N20">
-        <v>1.013509965826579</v>
+        <v>1.009785050251958</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02122369867765</v>
+        <v>0.9849731442728545</v>
       </c>
       <c r="D21">
-        <v>1.026529616551379</v>
+        <v>1.006450359551955</v>
       </c>
       <c r="E21">
-        <v>1.043092522543246</v>
+        <v>0.9831666180330781</v>
       </c>
       <c r="F21">
-        <v>1.047081359848432</v>
+        <v>0.9857904523173509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031281862122047</v>
+        <v>1.037048561320795</v>
       </c>
       <c r="J21">
-        <v>1.027917696194316</v>
+        <v>1.015112849987849</v>
       </c>
       <c r="K21">
-        <v>1.030145359944719</v>
+        <v>1.021310549757226</v>
       </c>
       <c r="L21">
-        <v>1.046646463563511</v>
+        <v>0.9984740793871888</v>
       </c>
       <c r="M21">
-        <v>1.0506207399043</v>
+        <v>1.00104612397063</v>
       </c>
       <c r="N21">
-        <v>1.013369980905234</v>
+        <v>1.009065711714058</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020705682219873</v>
+        <v>0.9821746743518609</v>
       </c>
       <c r="D22">
-        <v>1.026163101103676</v>
+        <v>1.004567887883311</v>
       </c>
       <c r="E22">
-        <v>1.042261612544317</v>
+        <v>0.9790330868232682</v>
       </c>
       <c r="F22">
-        <v>1.046217515875662</v>
+        <v>0.9814905304792361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03119254359003</v>
+        <v>1.036366693337395</v>
       </c>
       <c r="J22">
-        <v>1.027651965507306</v>
+        <v>1.013717677588811</v>
       </c>
       <c r="K22">
-        <v>1.029910642362426</v>
+        <v>1.020049393914797</v>
       </c>
       <c r="L22">
-        <v>1.045946692910424</v>
+        <v>0.9950316679968408</v>
       </c>
       <c r="M22">
-        <v>1.049887573814538</v>
+        <v>0.9974378026382084</v>
       </c>
       <c r="N22">
-        <v>1.013281856912888</v>
+        <v>1.008602575345086</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020980248556006</v>
+        <v>0.9836638929574105</v>
       </c>
       <c r="D23">
-        <v>1.026357362209856</v>
+        <v>1.005569218213231</v>
       </c>
       <c r="E23">
-        <v>1.042701988407584</v>
+        <v>0.9812337455759758</v>
       </c>
       <c r="F23">
-        <v>1.046675347783588</v>
+        <v>0.9837797892073085</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031239994212244</v>
+        <v>1.036730373180805</v>
       </c>
       <c r="J23">
-        <v>1.027792862038493</v>
+        <v>1.0144604767775</v>
       </c>
       <c r="K23">
-        <v>1.030035108931498</v>
+        <v>1.020720875206076</v>
       </c>
       <c r="L23">
-        <v>1.04631760683408</v>
+        <v>0.9968646891141898</v>
       </c>
       <c r="M23">
-        <v>1.050276187391023</v>
+        <v>0.9993591257860405</v>
       </c>
       <c r="N23">
-        <v>1.013328583413317</v>
+        <v>1.008849148298985</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022062157014685</v>
+        <v>0.9894032775171003</v>
       </c>
       <c r="D24">
-        <v>1.027122931583818</v>
+        <v>1.009437515721171</v>
       </c>
       <c r="E24">
-        <v>1.044438044218784</v>
+        <v>0.9896953459275724</v>
       </c>
       <c r="F24">
-        <v>1.048480189984391</v>
+        <v>0.9925817085117672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031424555893871</v>
+        <v>1.038113884540088</v>
       </c>
       <c r="J24">
-        <v>1.028346939500154</v>
+        <v>1.017315431236775</v>
       </c>
       <c r="K24">
-        <v>1.030524266160982</v>
+        <v>1.023300900499897</v>
       </c>
       <c r="L24">
-        <v>1.04777892144971</v>
+        <v>1.00390587215281</v>
       </c>
       <c r="M24">
-        <v>1.051807269839254</v>
+        <v>1.00674036222882</v>
       </c>
       <c r="N24">
-        <v>1.01351231080379</v>
+        <v>1.009796931646877</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023319594275587</v>
+        <v>0.9958244606114113</v>
       </c>
       <c r="D25">
-        <v>1.028012890157709</v>
+        <v>1.013782350652619</v>
       </c>
       <c r="E25">
-        <v>1.046457498850742</v>
+        <v>0.9991324224718049</v>
       </c>
       <c r="F25">
-        <v>1.050579597383002</v>
+        <v>1.002397473582359</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031634054282378</v>
+        <v>1.039623705518154</v>
       </c>
       <c r="J25">
-        <v>1.028988597645559</v>
+        <v>1.020493170090118</v>
       </c>
       <c r="K25">
-        <v>1.031090094911725</v>
+        <v>1.026170415581127</v>
       </c>
       <c r="L25">
-        <v>1.049476907060314</v>
+        <v>1.011744221409992</v>
       </c>
       <c r="M25">
-        <v>1.053586391684787</v>
+        <v>1.014958685519809</v>
       </c>
       <c r="N25">
-        <v>1.013725026100421</v>
+        <v>1.010851981434916</v>
       </c>
     </row>
   </sheetData>
